--- a/data/lunmap.xlsx
+++ b/data/lunmap.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="884" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="884" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="enable_lmm" sheetId="17" r:id="rId1"/>
     <sheet name="add_lunmap" sheetId="18" r:id="rId2"/>
     <sheet name="addun_lunmap" sheetId="19" r:id="rId3"/>
-    <sheet name="list_fc" sheetId="1" r:id="rId4"/>
+    <sheet name="list_lunmap" sheetId="1" r:id="rId4"/>
     <sheet name="del_lunmap" sheetId="16" r:id="rId5"/>
     <sheet name="dellun_lunmap" sheetId="20" r:id="rId6"/>
     <sheet name="disable_lmm" sheetId="21" r:id="rId7"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="167">
   <si>
     <t>expect result</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,23 +59,580 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>lunmap test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUN mapping and masking : Enabled</t>
+  </si>
+  <si>
+    <t>lunmap -a add -t iscsi -i 4 -p clone -l 0,1 -m 0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a add -t fc -i 3 -p snapshot -l 2 -m 1022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a add -t iscsi -i 2 -p snapshot -l 0,1 -m 2,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a add -t fc -i 5 -p clone -l 0 -m 1023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a add -t iscsi -i 0 -p volume -l 0,1 -m 0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap should be added with: -t iscsi -i 0 -p volume -l 0,1 -m 0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a add -t fc -i 1 -p volume -l 1 -m 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap should be added with: -t fc -i 1 -p volume -l 1 -m 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap should be added with: -t iscsi -i 2 -p snapshot -l 0,1 -m 2,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap should be added with: -t fc -i 3 -p snapshot -l 2 -m 1022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap should be added with: -t iscsi -i 4 -p clone -l 0,1 -m 0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap should be added with: -t fc -i 5 -p clone -l 0 -m 1023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -i 1</t>
+  </si>
+  <si>
+    <t>lunmap -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -i 2</t>
+  </si>
+  <si>
+    <t>lunmap -i 3</t>
+  </si>
+  <si>
+    <t>lunmap -i 4</t>
+  </si>
+  <si>
+    <t>lunmap -i 5</t>
+  </si>
+  <si>
+    <t>InitiatorType: iSCSI</t>
+  </si>
+  <si>
+    <t>InitiatorType: FC</t>
+  </si>
+  <si>
+    <t>InitiatorId: 0</t>
+  </si>
+  <si>
+    <t>InitiatorId: 1</t>
+  </si>
+  <si>
+    <t>InitiatorId: 2</t>
+  </si>
+  <si>
+    <t>InitiatorId: 3</t>
+  </si>
+  <si>
+    <t>InitiatorId: 4</t>
+  </si>
+  <si>
+    <t>InitiatorId: 5</t>
+  </si>
+  <si>
+    <t>1023                       0                        clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0                         0                        volume</t>
+  </si>
+  <si>
+    <t>1                         1                        volume</t>
+  </si>
+  <si>
+    <t>2                         1                        volume</t>
+  </si>
+  <si>
+    <t>2                        0                        snapshot</t>
+  </si>
+  <si>
+    <t>4                        1                        snapshot</t>
+  </si>
+  <si>
+    <t>1022                      2                       snapshot</t>
+  </si>
+  <si>
+    <t>0                         0                         clone</t>
+  </si>
+  <si>
+    <t>1                         1                         clone</t>
+  </si>
+  <si>
+    <t>lunmap -a addlun -i 0 -p volume -l 2 -m 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a addlun -i 3 -p snapshot -l 0,1 -m 5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a addlun -i 5 -p clone -l 1 -m 1022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volume 2 should be mapped on initiator 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snapshot 0,1 should be mapped on initiator 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clone 1 should be mapped on initiator 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3                         2                        volume</t>
+  </si>
+  <si>
+    <t>5                         0                       snapshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6                         1                       snapshot</t>
+  </si>
+  <si>
+    <t>1022                       1                        clone</t>
+  </si>
+  <si>
+    <t>lunmap -i 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -i 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUN Mapping Type : initiator</t>
+  </si>
+  <si>
+    <t>all lunmap should be listed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap should be listed on initiator 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap should be listed on initiator 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUN mapping and masking :</t>
+  </si>
+  <si>
+    <t>InitiatorId:</t>
+  </si>
+  <si>
+    <t>No LUN mapping entry available</t>
+  </si>
+  <si>
+    <t>InitiatorType:</t>
+  </si>
+  <si>
+    <t>InitiatorName:</t>
+  </si>
+  <si>
+    <t>Lun</t>
+  </si>
+  <si>
+    <t>Sid</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>lunmap -a del -i 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a del -i 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a del -i 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -i 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -i 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a dellun -i 0 -p volume -l 0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a dellun -i 3 -p snapshot -l 0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all mapping should be deleted on initiator 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all mapping should be deleted on initiator 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>all mapping should be deleted on initiator 4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapping of volume 0,1 should be deleted on initiator 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapping of snapshot 0,1 should be deleted on initiator 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a dellun -i 5 -p clone -l 0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -i 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mapping of clone 0,1 should be deleted on initiator 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0                       snapshot</t>
+  </si>
+  <si>
+    <t>0                        volume</t>
+  </si>
+  <si>
+    <t>1                        volume</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1                       snapshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0                       clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1                       clone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LMM should be disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LUN mapping and masking : Disabled</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -i -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -i 2049</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -i test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting initator id when lists lun mapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>checkpoint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lunmap test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunmap -test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunmap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunmap -a enable</t>
+    <t>lunmap -a add test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting initator type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a add -t test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid setting test (fc|iscsi)</t>
+  </si>
+  <si>
+    <t>invalid setting 2049 (0,2048)</t>
+  </si>
+  <si>
+    <t>invalid setting -1 (0,2048)</t>
+  </si>
+  <si>
+    <t>lunmap -a add -t fc -i 100 -p volume -l 1 -m 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting initator id when adds lun mapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error (0x498B5202): Invalid initiator index</t>
+  </si>
+  <si>
+    <t>lunmap -a add -t iscsi -i 2 -p test -l 0,1 -m 2,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid setting test (volume|snapshot|clone)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting source type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a add -t fc -i 3 -p snapshot -l 10 -m 1022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error (0x4100102): Empty query result</t>
+  </si>
+  <si>
+    <t>Invalid setting source id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a add -t iscsi -i 2 -p clone -l 0 -m -1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a add -t iscsi -i 1 -p volume -l 0 -m 1024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid setting -1 (0,1023)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid setting 1024 (0,1023)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting lun mapping values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a add -t iscsi -i 2 -p clone -l 0 -m test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a addlun -i 7 -p volume -l 2 -m 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting initator id when adds mapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error (0x4070): LMM entry not found</t>
+  </si>
+  <si>
+    <t>lunmap -a addlun -i 5 -p snapshot -l 10 -m 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a enable test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a del -i 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Error (0x498B5302): Invalid LUN map table</t>
+  </si>
+  <si>
+    <t>Invalid setting initator id when deletes lun mapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a disable test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a del -i test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a dellun -i test -p volume -l 0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a dellun -i 7 -p snapshot -l 0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a dellun -i 5 -p clone -l 0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid source id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invalid setting source id when deletes mapping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -i -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a add -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a addlun -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a enable -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a disable -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a del -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a dellun -test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a add</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">lunmap -a add -t </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">lunmap -a add -t fc -i </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">lunmap -a add -t iscsi -i 2 -p </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">lunmap -a add -t fc -i 3 -p snapshot </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">lunmap -a add -t iscsi -i 2 -p clone -l </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">lunmap -a add -t iscsi -i 7 -p clone -l 0 -m </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a addlun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">lunmap -a addlun -i 5 -p snapshot -l </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a del -i</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a dellun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">lunmap -a dellun -i </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">lunmap -a dellun -i 5 -p </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">lunmap -a dellun -i 5 -p clone -l </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -83,153 +640,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lunmap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LUN mapping and masking : Enabled</t>
-  </si>
-  <si>
-    <t>lunmap -a add -t iscsi -i 4 -p clone -l 0,1 -m 0,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunmap -a add -t fc -i 3 -p snapshot -l 2 -m 1022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunmap -a add -t iscsi -i 2 -p snapshot -l 0,1 -m 2,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunmap -a add -t fc -i 5 -p clone -l 0 -m 1023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunmap -a add -t iscsi -i 0 -p volume -l 0,1 -m 0,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunmap should be added with: -t iscsi -i 0 -p volume -l 0,1 -m 0,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunmap -a add -t fc -i 1 -p volume -l 1 -m 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunmap should be added with: -t fc -i 1 -p volume -l 1 -m 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunmap should be added with: -t iscsi -i 2 -p snapshot -l 0,1 -m 2,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunmap should be added with: -t fc -i 3 -p snapshot -l 2 -m 1022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunmap should be added with: -t iscsi -i 4 -p clone -l 0,1 -m 0,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunmap should be added with: -t fc -i 5 -p clone -l 0 -m 1023</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunmap -i 1</t>
-  </si>
-  <si>
-    <t>lunmap -i 0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunmap -i 2</t>
-  </si>
-  <si>
-    <t>lunmap -i 3</t>
-  </si>
-  <si>
-    <t>lunmap -i 4</t>
-  </si>
-  <si>
-    <t>lunmap -i 5</t>
-  </si>
-  <si>
-    <t>InitiatorType: iSCSI</t>
-  </si>
-  <si>
-    <t>InitiatorType: FC</t>
-  </si>
-  <si>
-    <t>InitiatorId: 0</t>
-  </si>
-  <si>
-    <t>InitiatorId: 1</t>
-  </si>
-  <si>
-    <t>InitiatorId: 2</t>
-  </si>
-  <si>
-    <t>InitiatorId: 3</t>
-  </si>
-  <si>
-    <t>InitiatorId: 4</t>
-  </si>
-  <si>
-    <t>InitiatorId: 5</t>
-  </si>
-  <si>
-    <t>1023                       0                        clone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0                         0                        volume</t>
-  </si>
-  <si>
-    <t>1                         1                        volume</t>
-  </si>
-  <si>
-    <t>2                         1                        volume</t>
-  </si>
-  <si>
-    <t>2                        0                        snapshot</t>
-  </si>
-  <si>
-    <t>4                        1                        snapshot</t>
-  </si>
-  <si>
-    <t>1022                      2                       snapshot</t>
-  </si>
-  <si>
-    <t>0                         0                         clone</t>
-  </si>
-  <si>
-    <t>1                         1                         clone</t>
-  </si>
-  <si>
-    <t>lunmap -a addlun -i 0 -p volume -l 0,1 -m 0,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunmap -a addlun -i 1 -p volume -l 1 -m 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunmap -a addlun -i 2 -p snapshot -l 0,1 -m 2,4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunmap -a addlun -i 3 -p snapshot -l 2 -m 1022</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunmap -a addlun -i 4 -p clone -l 0,1 -m 0,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lunmap -a addlun -i 5 -p clone -l 0 -m 1023</t>
+    <t>Invalid option for the command or the action</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Missing parameter</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,7 +996,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -608,16 +1023,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -629,15 +1044,15 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="21.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -654,12 +1069,188 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>166</v>
       </c>
       <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>158</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>159</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>161</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>1</v>
       </c>
     </row>
@@ -674,7 +1265,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -703,131 +1294,131 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
         <v>35</v>
       </c>
-      <c r="E2" t="s">
-        <v>37</v>
-      </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s">
-        <v>38</v>
-      </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
         <v>33</v>
       </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -839,21 +1430,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="59.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -867,70 +1459,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>52</v>
       </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>54</v>
-      </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
+      <c r="D4" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -942,22 +1513,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="4.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.75" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25" bestFit="1" customWidth="1"/>
@@ -968,7 +1540,7 @@
     <col min="18" max="18" width="18.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -977,6 +1549,87 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -988,16 +1641,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.25" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1013,6 +1667,48 @@
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1024,20 +1720,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.5" customWidth="1"/>
+    <col min="2" max="2" width="57.25" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="36.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1049,6 +1746,57 @@
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E4" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1060,17 +1808,18 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -1085,6 +1834,20 @@
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1096,16 +1859,17 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="29.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.75" customWidth="1"/>
+    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="57.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1117,12 +1881,12 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -1132,25 +1896,232 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D3" s="2"/>
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D4" s="2"/>
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D5" s="2"/>
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D6" s="2"/>
+      <c r="A6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>107</v>
+      </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" t="s">
+        <v>112</v>
+      </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
       <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" t="s">
+        <v>117</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B12" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D12" s="2"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>120</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="2"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>130</v>
+      </c>
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>136</v>
+      </c>
+      <c r="B21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" t="s">
+        <v>138</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1160,15 +2131,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="47.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="45.5" customWidth="1"/>
     <col min="3" max="3" width="49.375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1186,12 +2157,89 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
         <v>6</v>
       </c>
     </row>

--- a/data/lunmap.xlsx
+++ b/data/lunmap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="884" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="195" windowWidth="14805" windowHeight="7920" tabRatio="884" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="enable_lmm" sheetId="17" r:id="rId1"/>
@@ -387,10 +387,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lunmap -i 2049</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>lunmap -i test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,12 +414,6 @@
     <t>invalid setting test (fc|iscsi)</t>
   </si>
   <si>
-    <t>invalid setting 2049 (0,2048)</t>
-  </si>
-  <si>
-    <t>invalid setting -1 (0,2048)</t>
-  </si>
-  <si>
     <t>lunmap -a add -t fc -i 100 -p volume -l 1 -m 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -466,10 +456,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>invalid setting -1 (0,1023)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>invalid setting 1024 (0,1023)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -645,6 +631,22 @@
   </si>
   <si>
     <t>Missing parameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid setting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lunmap -i 2048</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invalid setting 2048 (0,2047)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1026,7 +1028,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
@@ -1046,8 +1048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1069,10 +1071,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1080,7 +1082,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -1091,7 +1093,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -1102,7 +1104,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -1113,7 +1115,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -1124,7 +1126,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -1135,7 +1137,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -1146,7 +1148,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -1157,7 +1159,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -1168,7 +1170,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -1179,7 +1181,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -1190,7 +1192,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -1201,7 +1203,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -1212,7 +1214,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -1223,7 +1225,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -1234,7 +1236,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -1245,7 +1247,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -1861,8 +1863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1881,7 +1883,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -1897,7 +1899,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -1911,26 +1913,26 @@
         <v>99</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -1941,55 +1943,55 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" t="s">
         <v>106</v>
-      </c>
-      <c r="B7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C7" t="s">
-        <v>107</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B11" t="s">
         <v>7</v>
@@ -2001,54 +2003,54 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" t="s">
         <v>119</v>
       </c>
-      <c r="B12" t="s">
-        <v>123</v>
-      </c>
       <c r="C12" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C13" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
@@ -2059,7 +2061,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
@@ -2070,7 +2072,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B18" t="s">
         <v>7</v>
@@ -2081,18 +2083,18 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
         <v>7</v>
@@ -2103,24 +2105,24 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C22" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2160,7 +2162,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -2168,7 +2170,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
@@ -2179,7 +2181,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
@@ -2190,7 +2192,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
@@ -2201,7 +2203,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -2212,7 +2214,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -2223,7 +2225,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -2234,7 +2236,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
